--- a/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
+++ b/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -188,9 +188,6 @@
     <t>Digital Origin</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>Abstract</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>Name Subject Heading Affiliation 2</t>
+  </si>
+  <si>
+    <t>Language 1</t>
   </si>
 </sst>
 </file>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,164 +1042,164 @@
         <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CE1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1217,13 +1217,13 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="AN2" s="1">
         <v>1981</v>
@@ -1237,68 +1237,68 @@
         <v>1982</v>
       </c>
       <c r="AS2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AY2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BN2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="BP2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
@@ -1307,56 +1307,56 @@
       <c r="BU2" s="1"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BX2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="CD2" s="3"/>
       <c r="CE2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CF2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="CI2" s="4">
         <v>42170.508518518516</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2"/>
@@ -1364,31 +1364,31 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1406,78 +1406,78 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
       <c r="AY3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="BH3" s="2"/>
       <c r="BI3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BL3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="BP3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
@@ -1486,88 +1486,88 @@
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CB3" s="1"/>
       <c r="CC3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CI3" s="8">
         <v>42285.597905092596</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
@@ -1585,53 +1585,53 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="BH4" s="2"/>
       <c r="BI4" s="1"/>
@@ -1657,73 +1657,73 @@
       <c r="CC4" s="1"/>
       <c r="CD4" s="6"/>
       <c r="CE4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CI4" s="8">
         <v>42285.606759259259</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -1741,78 +1741,78 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC5" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
       <c r="BF5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="BH5" s="2"/>
       <c r="BI5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BK5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BL5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="BP5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
@@ -1821,41 +1821,41 @@
       <c r="BU5" s="1"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BZ5" s="1"/>
       <c r="CA5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CF5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CH5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CI5" s="8">
         <v>42285.616435185184</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
+++ b/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="160">
   <si>
     <t>What is your name?</t>
   </si>
@@ -347,9 +347,6 @@
     <t xml:space="preserve">Donated by Citywide Educational Coalition. </t>
   </si>
   <si>
-    <t>African American students -- Massachusetts -- Boston</t>
-  </si>
-  <si>
     <t>lcsh</t>
   </si>
   <si>
@@ -504,6 +501,12 @@
   </si>
   <si>
     <t>Language 1</t>
+  </si>
+  <si>
+    <t>African American students -- Massachusetts -- Boston | Value URI</t>
+  </si>
+  <si>
+    <t>African Americans -- Education -- Massachusetts -- Boston | Value URI</t>
   </si>
 </sst>
 </file>
@@ -867,7 +870,7 @@
   <dimension ref="A1:CJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2"/>
+      <selection activeCell="BK2" sqref="BK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1045,7 @@
         <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>53</v>
@@ -1105,28 +1108,28 @@
         <v>72</v>
       </c>
       <c r="BW1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="CA1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>73</v>
@@ -1180,7 +1183,7 @@
         <v>87</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
@@ -1193,7 +1196,7 @@
         <v>89</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>90</v>
@@ -1262,7 +1265,7 @@
         <v>102</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>103</v>
@@ -1277,28 +1280,28 @@
       </c>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="BK2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="BP2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
@@ -1317,7 +1320,7 @@
       </c>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CB2" s="1" t="s">
         <v>86</v>
@@ -1330,19 +1333,19 @@
         <v>84</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CG2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CI2" s="4">
         <v>42170.508518518516</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1350,10 +1353,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>82</v>
@@ -1373,11 +1376,11 @@
         <v>87</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>86</v>
@@ -1409,13 +1412,13 @@
         <v>92</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM3" s="3" t="s">
         <v>94</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="1"/>
@@ -1435,16 +1438,16 @@
         <v>100</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
@@ -1456,28 +1459,28 @@
       </c>
       <c r="BH3" s="2"/>
       <c r="BI3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BK3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BL3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="BP3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
@@ -1486,7 +1489,7 @@
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>86</v>
@@ -1496,29 +1499,29 @@
       </c>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="CB3" s="1"/>
       <c r="CC3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CI3" s="8">
         <v>42285.597905092596</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1526,17 +1529,17 @@
         <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1552,11 +1555,11 @@
         <v>87</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>86</v>
@@ -1588,13 +1591,13 @@
         <v>92</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>94</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1614,16 +1617,16 @@
         <v>100</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
@@ -1657,22 +1660,22 @@
       <c r="CC4" s="1"/>
       <c r="CD4" s="6"/>
       <c r="CE4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CI4" s="8">
         <v>42285.606759259259</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1680,24 +1683,24 @@
         <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>86</v>
@@ -1706,13 +1709,13 @@
         <v>89</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>86</v>
@@ -1744,13 +1747,13 @@
         <v>92</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM5" s="3" t="s">
         <v>94</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
@@ -1770,16 +1773,16 @@
         <v>100</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
@@ -1791,28 +1794,28 @@
       </c>
       <c r="BH5" s="2"/>
       <c r="BI5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BK5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BL5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="BP5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
@@ -1821,7 +1824,7 @@
       <c r="BU5" s="1"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BX5" s="1" t="s">
         <v>86</v>
@@ -1831,7 +1834,7 @@
       </c>
       <c r="BZ5" s="1"/>
       <c r="CA5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CB5" s="1" t="s">
         <v>86</v>
@@ -1840,22 +1843,22 @@
         <v>89</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CF5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CH5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CI5" s="8">
         <v>42285.616435185184</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
+++ b/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
   <si>
     <t>What is your name?</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Type of Resource</t>
   </si>
   <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Genre Authority</t>
-  </si>
-  <si>
     <t>Date Created</t>
   </si>
   <si>
@@ -329,9 +323,6 @@
     <t>Language 1</t>
   </si>
   <si>
-    <t>Abstract</t>
-  </si>
-  <si>
     <t>Table of Contents</t>
   </si>
   <si>
@@ -467,9 +458,6 @@
     <t>English | http://id.loc.gov/vocabulary/iso639-2/eng</t>
   </si>
   <si>
-    <t>Annual report from the Citywide Educational Coalition includes seminal information about the desegregation of the Boston Public Schools.</t>
-  </si>
-  <si>
     <t>African Americans -- Education -- Massachusetts -- Boston | Value URI</t>
   </si>
   <si>
@@ -486,6 +474,27 @@
   </si>
   <si>
     <t>Governance</t>
+  </si>
+  <si>
+    <t>Genre 1</t>
+  </si>
+  <si>
+    <t>Genre Authority 1</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
+    <t>Abstract 1</t>
+  </si>
+  <si>
+    <t>Abstract 2</t>
+  </si>
+  <si>
+    <t>Genre 2</t>
+  </si>
+  <si>
+    <t>Genre Authority 2</t>
   </si>
 </sst>
 </file>
@@ -560,29 +569,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -878,15 +865,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX2"/>
+  <dimension ref="A1:DA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:102" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:105" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,22 +896,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -942,417 +929,428 @@
         <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CE1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BY1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CW1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CX1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CY1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:105" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="CV1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:102" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="1">
         <v>1981</v>
       </c>
-      <c r="AB2" s="1">
-        <v>1982</v>
-      </c>
-      <c r="AC2" s="1"/>
       <c r="AD2" s="1">
         <v>1982</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1">
+        <v>1982</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AM2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AP2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
@@ -1361,100 +1359,104 @@
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
-      <c r="BQ2" s="1" t="s">
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BR2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="1"/>
-      <c r="BZ2" s="1"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="3"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="1"/>
       <c r="CC2" s="1"/>
       <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="1" t="s">
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CN2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CG2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CP2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CQ2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CR2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CS2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CT2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="CP2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="CU2" s="3"/>
       <c r="CV2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CW2" s="7">
+        <v>48</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CZ2" s="7">
         <v>42170.508518518516</v>
       </c>
-      <c r="CX2" s="1" t="s">
-        <v>152</v>
+      <c r="DA2" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="AX2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(AX2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AU2">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(AU2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(AR2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
+++ b/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="161">
   <si>
     <t>What is your name?</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Access Condition : Use and Reproduction 2</t>
   </si>
   <si>
-    <t>Provenance note</t>
-  </si>
-  <si>
-    <t>Other notes</t>
-  </si>
-  <si>
     <t>Topical Subject Heading 1</t>
   </si>
   <si>
@@ -495,6 +489,27 @@
   </si>
   <si>
     <t>Genre Authority 2</t>
+  </si>
+  <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>Note 1 Attribute</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>Note 2 Attribute</t>
+  </si>
+  <si>
+    <t>provenance</t>
+  </si>
+  <si>
+    <t>this is provenance note</t>
+  </si>
+  <si>
+    <t>this is another note</t>
   </si>
 </sst>
 </file>
@@ -865,15 +880,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA2"/>
+  <dimension ref="A1:DC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:105" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,22 +911,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -929,34 +944,34 @@
         <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>13</v>
@@ -965,52 +980,52 @@
         <v>14</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>15</v>
@@ -1024,252 +1039,258 @@
       <c r="AX1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CD1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CF1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CL1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="CB1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CU1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CV1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CY1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CI1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CZ1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:107" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CU1" s="3"/>
-      <c r="CV1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:105" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC2" s="1">
         <v>1981</v>
@@ -1282,77 +1303,85 @@
         <v>1982</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BD2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
+      <c r="BJ2" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
@@ -1362,91 +1391,93 @@
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
-      <c r="BT2" s="1" t="s">
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BU2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BY2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CL2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CO2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="1"/>
-      <c r="CG2" s="1"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CJ2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CR2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CS2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="CP2" s="3" t="s">
+      <c r="CT2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="CQ2" s="3" t="s">
+      <c r="CU2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="CR2" s="3" t="s">
+      <c r="CV2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="CS2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="CT2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DB2" s="7">
+        <v>42170.508518518516</v>
+      </c>
+      <c r="DC2" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CZ2" s="7">
-        <v>42170.508518518516</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AX2">
+  <conditionalFormatting sqref="AX2:AZ2">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(AX2))&gt;0</formula>
     </cfRule>

--- a/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
+++ b/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="190">
   <si>
     <t>What is your name?</t>
   </si>
@@ -510,6 +510,93 @@
   </si>
   <si>
     <t>this is another note</t>
+  </si>
+  <si>
+    <t>M130.B05.F020.001.pdf</t>
+  </si>
+  <si>
+    <t>M130.B05.F020.001</t>
+  </si>
+  <si>
+    <t>Garrity | W. Arthur (Wendell Arthur)| Rev| 1920-1999 | URI for value</t>
+  </si>
+  <si>
+    <t>records (documents)</t>
+  </si>
+  <si>
+    <t>2 pages</t>
+  </si>
+  <si>
+    <t>Response to inquiry about appearance on Vox Pop on WKBG-TV.</t>
+  </si>
+  <si>
+    <t>African Americans -- Education -- Massachusetts -- Boston</t>
+  </si>
+  <si>
+    <t>Busing for school integration -- Massachusetts -- Boston</t>
+  </si>
+  <si>
+    <t>Smith | Mary Ellen ||| Value URI</t>
+  </si>
+  <si>
+    <t>WKGB-TV</t>
+  </si>
+  <si>
+    <t>Letter, WKBG-TV, March 11, 1974.</t>
+  </si>
+  <si>
+    <t>Box 6, Folder 29</t>
+  </si>
+  <si>
+    <t>M130.B06.F029.006</t>
+  </si>
+  <si>
+    <t>Executive Staff</t>
+  </si>
+  <si>
+    <t>M130.B06.F029.008.pdf</t>
+  </si>
+  <si>
+    <t>M130.B06.F029.008</t>
+  </si>
+  <si>
+    <t>Press release, Channel 7 focus spot, April 15, 1974.</t>
+  </si>
+  <si>
+    <t>press releases</t>
+  </si>
+  <si>
+    <t>1 page</t>
+  </si>
+  <si>
+    <t>Press release for Channel 7 regarding the formation of CWEC.</t>
+  </si>
+  <si>
+    <t>M130.B06.F029.009.pdf</t>
+  </si>
+  <si>
+    <t>M130.B06.F029.009</t>
+  </si>
+  <si>
+    <t>Statement of Mayor Kevin H. White.</t>
+  </si>
+  <si>
+    <t>White| Kevin H.</t>
+  </si>
+  <si>
+    <t>author | http://id.loc.gov/vocabulary/relators/cre</t>
+  </si>
+  <si>
+    <t>City of Boston</t>
+  </si>
+  <si>
+    <t>3 pages</t>
+  </si>
+  <si>
+    <t>Mayor White's response to President Ford's statement regarding the desegregation process in Boston Public Schools.</t>
+  </si>
+  <si>
+    <t>African American students -- Massachusetts -- Boston, African Americans -- Education -- Massachusetts -- Boston, Busing for school integration -- Massachusetts -- Boston, Civil rights -- Massachusetts -- Boston, Discrimination in education -- Massachusetts -- Boston, Public schools -- Massachusetts -- Boston, School integration -- Massachusetts -- Boston</t>
   </si>
 </sst>
 </file>
@@ -519,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,6 +635,35 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -566,11 +682,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -579,8 +705,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="12">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -880,13 +1020,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC2"/>
+  <dimension ref="A1:DC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="BB2" sqref="BB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="106" max="106" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1474,6 +1617,428 @@
       </c>
       <c r="DC2" s="1" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="N3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AG3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI3" s="8"/>
+      <c r="AN3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX3" s="8"/>
+      <c r="BC3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="8"/>
+      <c r="BV3" s="8"/>
+      <c r="BW3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BX3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB3" s="8"/>
+      <c r="CC3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="CD3" s="9"/>
+      <c r="CX3" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="CY3" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="CZ3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="DA3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="DB3" s="11">
+        <v>42285.597905092596</v>
+      </c>
+      <c r="DC3" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="N4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AG4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI4" s="8"/>
+      <c r="AN4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="8"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="8"/>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="9"/>
+      <c r="CX4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="CY4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="CZ4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="DA4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="DB4" s="11">
+        <v>42285.606759259259</v>
+      </c>
+      <c r="DC4" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AG5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI5" s="8"/>
+      <c r="AN5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX5" s="8"/>
+      <c r="BC5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BX5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD5" s="9"/>
+      <c r="CX5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="CY5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="CZ5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="DA5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="DB5" s="11">
+        <v>42285.616435185184</v>
+      </c>
+      <c r="DC5" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
+++ b/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1442,17 +1442,16 @@
         <v>1982</v>
       </c>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>1982</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="4"/>
+      <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>134</v>
       </c>
@@ -1673,13 +1672,13 @@
       </c>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AI3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
       <c r="AN3" s="8" t="s">
         <v>137</v>
       </c>
@@ -1819,13 +1818,13 @@
       </c>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
-      <c r="AG4" s="8" t="s">
+      <c r="AH4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
       <c r="AN4" s="8" t="s">
         <v>137</v>
       </c>
@@ -1949,13 +1948,13 @@
       </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
-      <c r="AG5" s="8" t="s">
+      <c r="AH5" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AI5" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
       <c r="AN5" s="8" t="s">
         <v>137</v>
       </c>

--- a/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
+++ b/spec/fixtures/files/demo_mods_new_file/demo_mods_new_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="191">
   <si>
     <t>What is your name?</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>African American students -- Massachusetts -- Boston, African Americans -- Education -- Massachusetts -- Boston, Busing for school integration -- Massachusetts -- Boston, Civil rights -- Massachusetts -- Boston, Discrimination in education -- Massachusetts -- Boston, Public schools -- Massachusetts -- Boston, School integration -- Massachusetts -- Boston</t>
+  </si>
+  <si>
+    <t>abstract goes here</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AV4" sqref="AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,17 +1476,19 @@
       <c r="AQ2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AR2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>58</v>
@@ -1695,11 +1700,11 @@
         <v>166</v>
       </c>
       <c r="AU3" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AV3" s="8"/>
       <c r="AW3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AX3" s="8"/>
       <c r="BC3" s="8" t="s">
@@ -1724,22 +1729,21 @@
       <c r="BS3" s="8"/>
       <c r="BT3" s="8"/>
       <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
+      <c r="BV3" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="BW3" s="8" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="BX3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="BY3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BZ3" s="8"/>
-      <c r="CA3" s="10" t="s">
+      <c r="BY3" s="8"/>
+      <c r="BZ3" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="CB3" s="8"/>
-      <c r="CC3" s="8" t="s">
+      <c r="CA3" s="8"/>
+      <c r="CB3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="CD3" s="9"/>
@@ -1841,11 +1845,11 @@
         <v>180</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AV4" s="8"/>
       <c r="AW4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AX4" s="8"/>
       <c r="BC4" s="8"/>
@@ -1866,10 +1870,9 @@
       <c r="BW4" s="8"/>
       <c r="BX4" s="8"/>
       <c r="BY4" s="8"/>
-      <c r="BZ4" s="8"/>
-      <c r="CA4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="8"/>
       <c r="CB4" s="8"/>
-      <c r="CC4" s="8"/>
       <c r="CD4" s="9"/>
       <c r="CX4" s="8" t="s">
         <v>177</v>
@@ -1971,11 +1974,11 @@
         <v>188</v>
       </c>
       <c r="AU5" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AV5" s="8"/>
       <c r="AW5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AX5" s="8"/>
       <c r="BC5" s="8" t="s">
@@ -2000,24 +2003,23 @@
       <c r="BS5" s="8"/>
       <c r="BT5" s="8"/>
       <c r="BU5" s="8"/>
-      <c r="BV5" s="8"/>
+      <c r="BV5" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="BW5" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="BX5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY5" s="8"/>
+      <c r="BZ5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="BY5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ5" s="8"/>
-      <c r="CA5" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="CB5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="CC5" s="8" t="s">
         <v>62</v>
       </c>
       <c r="CD5" s="9"/>
@@ -2046,9 +2048,9 @@
       <formula>LEN(TRIM(AX2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2">
+  <conditionalFormatting sqref="AW2">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(AU2))&gt;0</formula>
+      <formula>LEN(TRIM(AW2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
